--- a/inst/extdata/detailhändler.xlsx
+++ b/inst/extdata/detailhändler.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\EmulData\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E968BAD-E3DC-4F87-9368-114CBC0CFB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3F59E8-888E-48F3-8271-58C8EC599912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8561" yWindow="2710" windowWidth="9976" windowHeight="14688" activeTab="1" xr2:uid="{D6829031-54A4-45CC-B8DA-C5981AD6B0F0}"/>
+    <workbookView xWindow="1898" yWindow="1898" windowWidth="22543" windowHeight="14400" xr2:uid="{D6829031-54A4-45CC-B8DA-C5981AD6B0F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Coop</t>
   </si>
@@ -179,14 +178,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -521,372 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35AC288-C5B8-44D5-994D-8ECE403CDE2E}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>34900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0103F9A3-BE30-4109-B40C-F9A03A61C6B3}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -897,13 +529,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1202,39 +834,6 @@
       </c>
       <c r="C28">
         <v>11600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>3500</v>
       </c>
     </row>
   </sheetData>
